--- a/warninglist.xlsx
+++ b/warninglist.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">warning</t>
+  </si>
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -193,22 +196,24 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="42.5263157894737"/>
     <col collapsed="false" hidden="false" max="7" min="3" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -220,15 +225,15 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -236,7 +241,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -244,7 +249,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -252,7 +257,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -260,7 +265,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -268,7 +273,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -276,7 +281,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -284,7 +289,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -292,7 +297,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -300,15 +305,15 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -316,7 +321,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -324,7 +329,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -332,15 +337,15 @@
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -348,7 +353,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -356,15 +361,15 @@
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -372,15 +377,15 @@
         <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -388,7 +393,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -396,7 +401,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -404,7 +409,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -412,7 +417,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -420,7 +425,7 @@
         <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -428,7 +433,7 @@
         <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -436,7 +441,7 @@
         <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -444,7 +449,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
